--- a/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/平日_100人-時_プライバシデータ流出比-時/利用者が一時間当たり100人_時間ごとのプライバシデータ流出比.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/平日_100人-時_プライバシデータ流出比-時/利用者が一時間当たり100人_時間ごとのプライバシデータ流出比.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\利用者が一時間当たり100人_時間ごとのプライバシデータ流出比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\平日_100人-時_プライバシデータ流出比-時\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -685,71 +685,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>一時間当たり</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>人の時のプライバシデータ流出比</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -772,7 +708,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -922,13 +858,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141393504"/>
-        <c:axId val="141394288"/>
+        <c:axId val="160883808"/>
+        <c:axId val="160881848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141393504"/>
+        <c:axId val="160883808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="23"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -946,6 +884,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>時刻</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -968,7 +962,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -983,12 +977,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141394288"/>
+        <c:crossAx val="160881848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141394288"/>
+        <c:axId val="160881848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,6 +1002,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>第三者プライバシデータ流出比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1030,7 +1080,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1045,7 +1095,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141393504"/>
+        <c:crossAx val="160883808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1655,15 +1705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1951,7 +2001,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
